--- a/SubRES_TMPL/xmpl_SubRes_RSD-Retrofit.xlsx
+++ b/SubRES_TMPL/xmpl_SubRes_RSD-Retrofit.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A82AE61C-FB47-4167-AB15-04AE905EA92A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67F1C56A-9979-4AFF-9A8B-FD02FC67F3AE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{9D5618E0-D2A2-4912-B654-2E39BDAED497}"/>
+    <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{9D5618E0-D2A2-4912-B654-2E39BDAED497}"/>
   </bookViews>
   <sheets>
     <sheet name="Cover" sheetId="34" r:id="rId1"/>
@@ -535,8 +535,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="0.0"/>
-    <numFmt numFmtId="166" formatCode="\Te\x\t"/>
-    <numFmt numFmtId="168" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="165" formatCode="\Te\x\t"/>
+    <numFmt numFmtId="166" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="36" x14ac:knownFonts="1">
     <font>
@@ -1381,7 +1381,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="168" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="166" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
   </cellStyleXfs>
@@ -1566,6 +1566,57 @@
     <xf numFmtId="17" fontId="26" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="9" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="12" fillId="13" borderId="3" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1604,57 +1655,6 @@
     </xf>
     <xf numFmtId="164" fontId="27" fillId="7" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="9" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="12" fillId="13" borderId="3" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -2476,14 +2476,14 @@
       <c r="F16" s="6"/>
     </row>
     <row r="17" spans="1:14" ht="102.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="77" t="s">
+      <c r="A17" s="94" t="s">
         <v>85</v>
       </c>
-      <c r="B17" s="77"/>
-      <c r="C17" s="77"/>
-      <c r="D17" s="77"/>
-      <c r="E17" s="77"/>
-      <c r="F17" s="77"/>
+      <c r="B17" s="94"/>
+      <c r="C17" s="94"/>
+      <c r="D17" s="94"/>
+      <c r="E17" s="94"/>
+      <c r="F17" s="94"/>
       <c r="G17" s="8"/>
       <c r="H17" s="8"/>
       <c r="I17" s="9"/>
@@ -2521,13 +2521,13 @@
       <c r="A20" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B20" s="78" t="s">
+      <c r="B20" s="95" t="s">
         <v>87</v>
       </c>
-      <c r="C20" s="78"/>
-      <c r="D20" s="78"/>
-      <c r="E20" s="78"/>
-      <c r="F20" s="78"/>
+      <c r="C20" s="95"/>
+      <c r="D20" s="95"/>
+      <c r="E20" s="95"/>
+      <c r="F20" s="95"/>
       <c r="G20" s="13"/>
       <c r="H20" s="13"/>
       <c r="I20" s="14"/>
@@ -2541,13 +2541,13 @@
       <c r="A21" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="B21" s="79" t="s">
+      <c r="B21" s="96" t="s">
         <v>1</v>
       </c>
-      <c r="C21" s="79"/>
-      <c r="D21" s="79"/>
-      <c r="E21" s="79"/>
-      <c r="F21" s="79"/>
+      <c r="C21" s="96"/>
+      <c r="D21" s="96"/>
+      <c r="E21" s="96"/>
+      <c r="F21" s="96"/>
       <c r="G21" s="13"/>
       <c r="H21" s="13"/>
       <c r="I21" s="14"/>
@@ -2561,13 +2561,13 @@
       <c r="A22" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B22" s="79" t="s">
+      <c r="B22" s="96" t="s">
         <v>40</v>
       </c>
-      <c r="C22" s="79"/>
-      <c r="D22" s="79"/>
-      <c r="E22" s="79"/>
-      <c r="F22" s="79"/>
+      <c r="C22" s="96"/>
+      <c r="D22" s="96"/>
+      <c r="E22" s="96"/>
+      <c r="F22" s="96"/>
     </row>
     <row r="23" spans="1:14" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="3" t="s">
@@ -2596,22 +2596,22 @@
       <c r="H24" s="2"/>
     </row>
     <row r="25" spans="1:14" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="80"/>
-      <c r="B25" s="80"/>
-      <c r="C25" s="80"/>
-      <c r="D25" s="80"/>
-      <c r="E25" s="80"/>
-      <c r="F25" s="80"/>
+      <c r="A25" s="97"/>
+      <c r="B25" s="97"/>
+      <c r="C25" s="97"/>
+      <c r="D25" s="97"/>
+      <c r="E25" s="97"/>
+      <c r="F25" s="97"/>
       <c r="G25" s="2"/>
       <c r="H25" s="2"/>
     </row>
     <row r="26" spans="1:14" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="76"/>
-      <c r="B26" s="76"/>
-      <c r="C26" s="76"/>
-      <c r="D26" s="76"/>
-      <c r="E26" s="76"/>
-      <c r="F26" s="76"/>
+      <c r="A26" s="93"/>
+      <c r="B26" s="93"/>
+      <c r="C26" s="93"/>
+      <c r="D26" s="93"/>
+      <c r="E26" s="93"/>
+      <c r="F26" s="93"/>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A27" s="6"/>
@@ -2798,16 +2798,16 @@
   <sheetData>
     <row r="1" spans="2:20" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:20" ht="19.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="81" t="s">
+      <c r="B2" s="98" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="82"/>
-      <c r="D2" s="82"/>
-      <c r="E2" s="83"/>
-      <c r="G2" s="81" t="s">
+      <c r="C2" s="99"/>
+      <c r="D2" s="99"/>
+      <c r="E2" s="100"/>
+      <c r="G2" s="98" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="83"/>
+      <c r="H2" s="100"/>
       <c r="I2" s="17"/>
       <c r="J2" s="17"/>
       <c r="K2" s="18"/>
@@ -3149,16 +3149,16 @@
     </row>
     <row r="19" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="20" spans="2:8" ht="19.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="84" t="s">
+      <c r="B20" s="101" t="s">
         <v>62</v>
       </c>
-      <c r="C20" s="85"/>
-      <c r="D20" s="85"/>
-      <c r="E20" s="86"/>
-      <c r="G20" s="81" t="s">
+      <c r="C20" s="102"/>
+      <c r="D20" s="102"/>
+      <c r="E20" s="103"/>
+      <c r="G20" s="98" t="s">
         <v>14</v>
       </c>
-      <c r="H20" s="83"/>
+      <c r="H20" s="100"/>
     </row>
     <row r="21" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="45" t="s">
@@ -3402,16 +3402,16 @@
     </row>
     <row r="37" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="38" spans="2:8" ht="19.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B38" s="81" t="s">
+      <c r="B38" s="98" t="s">
         <v>70</v>
       </c>
-      <c r="C38" s="82"/>
-      <c r="D38" s="82"/>
-      <c r="E38" s="83"/>
-      <c r="G38" s="87" t="s">
+      <c r="C38" s="99"/>
+      <c r="D38" s="99"/>
+      <c r="E38" s="100"/>
+      <c r="G38" s="104" t="s">
         <v>64</v>
       </c>
-      <c r="H38" s="88"/>
+      <c r="H38" s="105"/>
     </row>
     <row r="39" spans="2:8" ht="15" x14ac:dyDescent="0.25">
       <c r="B39" s="66" t="s">
@@ -3516,46 +3516,46 @@
   <dimension ref="A1:V12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="O15" sqref="O15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="14" style="98" customWidth="1"/>
-    <col min="2" max="2" width="19.85546875" style="98" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="33.42578125" style="98" customWidth="1"/>
-    <col min="4" max="8" width="10.7109375" style="98" customWidth="1"/>
-    <col min="9" max="9" width="2" style="98" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="18.85546875" style="98" customWidth="1"/>
-    <col min="12" max="12" width="6.42578125" style="98" bestFit="1" customWidth="1"/>
-    <col min="13" max="17" width="9.140625" style="98"/>
-    <col min="18" max="22" width="11.140625" style="98" customWidth="1"/>
-    <col min="23" max="16384" width="9.140625" style="98"/>
+    <col min="1" max="1" width="14" style="85" customWidth="1"/>
+    <col min="2" max="2" width="19.85546875" style="85" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="33.42578125" style="85" customWidth="1"/>
+    <col min="4" max="8" width="10.7109375" style="85" customWidth="1"/>
+    <col min="9" max="9" width="2" style="85" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="18.85546875" style="85" customWidth="1"/>
+    <col min="12" max="12" width="6.42578125" style="85" bestFit="1" customWidth="1"/>
+    <col min="13" max="17" width="9.140625" style="85"/>
+    <col min="18" max="22" width="11.140625" style="85" customWidth="1"/>
+    <col min="23" max="16384" width="9.140625" style="85"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="21" x14ac:dyDescent="0.2">
-      <c r="A1" s="90" t="s">
+      <c r="A1" s="77" t="s">
         <v>82</v>
       </c>
-      <c r="B1" s="91"/>
+      <c r="B1" s="78"/>
     </row>
     <row r="2" spans="1:22" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="A2" s="92" t="s">
+      <c r="A2" s="79" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="4" spans="1:22" ht="15" x14ac:dyDescent="0.2">
-      <c r="A4" s="89" t="s">
+      <c r="A4" s="76" t="s">
         <v>27</v>
       </c>
-      <c r="C4" s="100"/>
-      <c r="D4" s="100"/>
-      <c r="F4" s="93"/>
-      <c r="G4" s="93"/>
-      <c r="K4" s="89" t="s">
+      <c r="C4" s="87"/>
+      <c r="D4" s="87"/>
+      <c r="F4" s="80"/>
+      <c r="G4" s="80"/>
+      <c r="K4" s="76" t="s">
         <v>26</v>
       </c>
-      <c r="R4" s="105" t="s">
+      <c r="R4" s="92" t="s">
         <v>144</v>
       </c>
     </row>
@@ -3584,7 +3584,7 @@
       <c r="H5" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="I5" s="94"/>
+      <c r="I5" s="81"/>
       <c r="J5" s="4" t="s">
         <v>28</v>
       </c>
@@ -3606,13 +3606,13 @@
       <c r="P5" s="4" t="s">
         <v>139</v>
       </c>
-      <c r="R5" s="97" t="s">
+      <c r="R5" s="84" t="s">
         <v>132</v>
       </c>
-      <c r="S5" s="97" t="s">
+      <c r="S5" s="84" t="s">
         <v>138</v>
       </c>
-      <c r="T5" s="97" t="s">
+      <c r="T5" s="84" t="s">
         <v>140</v>
       </c>
       <c r="U5" s="106" t="s">
@@ -3621,435 +3621,435 @@
       <c r="V5" s="106"/>
     </row>
     <row r="6" spans="1:22" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A6" s="96" t="s">
+      <c r="A6" s="83" t="s">
         <v>74</v>
       </c>
-      <c r="B6" s="96" t="s">
+      <c r="B6" s="83" t="s">
         <v>75</v>
       </c>
-      <c r="C6" s="96" t="s">
+      <c r="C6" s="83" t="s">
         <v>37</v>
       </c>
-      <c r="D6" s="96" t="s">
+      <c r="D6" s="83" t="s">
         <v>76</v>
       </c>
-      <c r="E6" s="96" t="s">
+      <c r="E6" s="83" t="s">
         <v>77</v>
       </c>
-      <c r="F6" s="96" t="s">
+      <c r="F6" s="83" t="s">
         <v>130</v>
       </c>
-      <c r="G6" s="96" t="s">
+      <c r="G6" s="83" t="s">
         <v>131</v>
       </c>
-      <c r="H6" s="96" t="s">
+      <c r="H6" s="83" t="s">
         <v>78</v>
       </c>
-      <c r="I6" s="94"/>
-      <c r="J6" s="95" t="s">
+      <c r="I6" s="81"/>
+      <c r="J6" s="82" t="s">
         <v>129</v>
       </c>
-      <c r="K6" s="95" t="s">
+      <c r="K6" s="82" t="s">
         <v>6</v>
       </c>
-      <c r="L6" s="95"/>
-      <c r="M6" s="95"/>
-      <c r="N6" s="95" t="s">
+      <c r="L6" s="82"/>
+      <c r="M6" s="82"/>
+      <c r="N6" s="82" t="s">
         <v>80</v>
       </c>
-      <c r="O6" s="95" t="s">
+      <c r="O6" s="82" t="s">
         <v>143</v>
       </c>
-      <c r="P6" s="95" t="s">
+      <c r="P6" s="82" t="s">
         <v>142</v>
       </c>
-      <c r="R6" s="103"/>
-      <c r="S6" s="103"/>
-      <c r="T6" s="103" t="s">
+      <c r="R6" s="90"/>
+      <c r="S6" s="90"/>
+      <c r="T6" s="90" t="s">
         <v>127</v>
       </c>
-      <c r="U6" s="103" t="s">
+      <c r="U6" s="90" t="s">
         <v>38</v>
       </c>
-      <c r="V6" s="103" t="s">
+      <c r="V6" s="90" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="7" spans="1:22" ht="15" x14ac:dyDescent="0.2">
-      <c r="A7" s="93" t="s">
+      <c r="A7" s="80" t="s">
         <v>36</v>
       </c>
-      <c r="B7" s="93" t="str">
-        <f>"R-RTFT-"&amp;R7&amp;"_"&amp;S7</f>
+      <c r="B7" s="80" t="str">
+        <f t="shared" ref="B7:B12" si="0">"R-RTFT-"&amp;R7&amp;"_"&amp;S7</f>
         <v>R-RTFT-Apt_Shallow</v>
       </c>
-      <c r="C7" s="93" t="str">
-        <f>"Residential "&amp;R7&amp;" - "&amp;S7&amp;" retrofit"</f>
+      <c r="C7" s="80" t="str">
+        <f t="shared" ref="C7:C12" si="1">"Residential "&amp;R7&amp;" - "&amp;S7&amp;" retrofit"</f>
         <v>Residential Apt - Shallow retrofit</v>
       </c>
-      <c r="D7" s="93" t="s">
+      <c r="D7" s="80" t="s">
         <v>16</v>
       </c>
-      <c r="E7" s="93" t="s">
+      <c r="E7" s="80" t="s">
         <v>81</v>
       </c>
-      <c r="F7" s="93"/>
-      <c r="G7" s="93"/>
-      <c r="H7" s="93"/>
-      <c r="I7" s="93"/>
-      <c r="J7" s="93" t="str">
-        <f>B7</f>
+      <c r="F7" s="80"/>
+      <c r="G7" s="80"/>
+      <c r="H7" s="80"/>
+      <c r="I7" s="80"/>
+      <c r="J7" s="80" t="str">
+        <f t="shared" ref="J7:J12" si="2">B7</f>
         <v>R-RTFT-Apt_Shallow</v>
       </c>
-      <c r="K7" s="93" t="str">
+      <c r="K7" s="80" t="str">
         <f>"RSDSH_"&amp;R7</f>
         <v>RSDSH_Apt</v>
       </c>
-      <c r="L7" s="93">
+      <c r="L7" s="80">
         <v>2020</v>
       </c>
-      <c r="M7" s="93">
+      <c r="M7" s="80">
         <v>1</v>
       </c>
-      <c r="N7" s="93">
+      <c r="N7" s="80">
         <v>30</v>
       </c>
-      <c r="O7" s="93">
+      <c r="O7" s="80">
         <f>V7</f>
         <v>3.2000000000000002E-3</v>
       </c>
-      <c r="P7" s="93">
-        <v>10</v>
-      </c>
-      <c r="R7" s="98" t="s">
+      <c r="P7" s="80">
+        <v>8</v>
+      </c>
+      <c r="R7" s="85" t="s">
         <v>133</v>
       </c>
-      <c r="S7" s="98" t="s">
+      <c r="S7" s="85" t="s">
         <v>136</v>
       </c>
-      <c r="T7" s="98">
+      <c r="T7" s="85">
         <v>1.6E-2</v>
       </c>
-      <c r="U7" s="101">
+      <c r="U7" s="88">
         <v>0.2</v>
       </c>
-      <c r="V7" s="98">
+      <c r="V7" s="85">
         <f>T7*U7</f>
         <v>3.2000000000000002E-3</v>
       </c>
     </row>
     <row r="8" spans="1:22" ht="15" x14ac:dyDescent="0.2">
-      <c r="A8" s="102" t="s">
+      <c r="A8" s="89" t="s">
         <v>36</v>
       </c>
-      <c r="B8" s="102" t="str">
-        <f>"R-RTFT-"&amp;R8&amp;"_"&amp;S8</f>
+      <c r="B8" s="89" t="str">
+        <f t="shared" si="0"/>
         <v>R-RTFT-Apt_Deep</v>
       </c>
-      <c r="C8" s="102" t="str">
-        <f>"Residential "&amp;R8&amp;" - "&amp;S8&amp;" retrofit"</f>
+      <c r="C8" s="89" t="str">
+        <f t="shared" si="1"/>
         <v>Residential Apt - Deep retrofit</v>
       </c>
-      <c r="D8" s="102" t="s">
+      <c r="D8" s="89" t="s">
         <v>16</v>
       </c>
-      <c r="E8" s="102" t="s">
+      <c r="E8" s="89" t="s">
         <v>81</v>
       </c>
-      <c r="F8" s="102"/>
-      <c r="G8" s="102"/>
-      <c r="H8" s="102"/>
-      <c r="I8" s="93"/>
-      <c r="J8" s="102" t="str">
-        <f>B8</f>
+      <c r="F8" s="89"/>
+      <c r="G8" s="89"/>
+      <c r="H8" s="89"/>
+      <c r="I8" s="80"/>
+      <c r="J8" s="89" t="str">
+        <f t="shared" si="2"/>
         <v>R-RTFT-Apt_Deep</v>
       </c>
-      <c r="K8" s="102" t="str">
-        <f t="shared" ref="K8:K12" si="0">"RSDSH_"&amp;R8</f>
+      <c r="K8" s="89" t="str">
+        <f t="shared" ref="K8:K12" si="3">"RSDSH_"&amp;R8</f>
         <v>RSDSH_Apt</v>
       </c>
-      <c r="L8" s="102">
+      <c r="L8" s="89">
         <v>2020</v>
       </c>
-      <c r="M8" s="102">
+      <c r="M8" s="89">
         <v>1</v>
       </c>
-      <c r="N8" s="102">
+      <c r="N8" s="89">
         <v>30</v>
       </c>
-      <c r="O8" s="102">
-        <f t="shared" ref="O8:O12" si="1">V8</f>
+      <c r="O8" s="89">
+        <f t="shared" ref="O8:O12" si="4">V8</f>
         <v>8.0000000000000002E-3</v>
       </c>
-      <c r="P8" s="102">
+      <c r="P8" s="89">
+        <v>25</v>
+      </c>
+      <c r="R8" s="86" t="s">
+        <v>133</v>
+      </c>
+      <c r="S8" s="86" t="s">
+        <v>137</v>
+      </c>
+      <c r="T8" s="86">
+        <v>1.6E-2</v>
+      </c>
+      <c r="U8" s="91">
+        <v>0.5</v>
+      </c>
+      <c r="V8" s="86">
+        <f t="shared" ref="V8:V12" si="5">T8*U8</f>
+        <v>8.0000000000000002E-3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+      <c r="A9" s="80" t="s">
+        <v>36</v>
+      </c>
+      <c r="B9" s="80" t="str">
+        <f t="shared" si="0"/>
+        <v>R-RTFT-Att_Shallow</v>
+      </c>
+      <c r="C9" s="80" t="str">
+        <f t="shared" si="1"/>
+        <v>Residential Att - Shallow retrofit</v>
+      </c>
+      <c r="D9" s="80" t="s">
+        <v>16</v>
+      </c>
+      <c r="E9" s="80" t="s">
+        <v>81</v>
+      </c>
+      <c r="F9" s="80"/>
+      <c r="G9" s="80"/>
+      <c r="H9" s="80"/>
+      <c r="I9" s="80"/>
+      <c r="J9" s="80" t="str">
+        <f t="shared" si="2"/>
+        <v>R-RTFT-Att_Shallow</v>
+      </c>
+      <c r="K9" s="80" t="str">
+        <f t="shared" si="3"/>
+        <v>RSDSH_Att</v>
+      </c>
+      <c r="L9" s="80">
+        <v>2020</v>
+      </c>
+      <c r="M9" s="80">
+        <v>1</v>
+      </c>
+      <c r="N9" s="80">
         <v>30</v>
       </c>
-      <c r="R8" s="99" t="s">
-        <v>133</v>
-      </c>
-      <c r="S8" s="99" t="s">
+      <c r="O9" s="80">
+        <f t="shared" si="4"/>
+        <v>5.3800000000000002E-3</v>
+      </c>
+      <c r="P9" s="80">
+        <v>10</v>
+      </c>
+      <c r="R9" s="85" t="s">
+        <v>134</v>
+      </c>
+      <c r="S9" s="85" t="s">
+        <v>136</v>
+      </c>
+      <c r="T9" s="85">
+        <v>2.69E-2</v>
+      </c>
+      <c r="U9" s="88">
+        <v>0.2</v>
+      </c>
+      <c r="V9" s="85">
+        <f t="shared" si="5"/>
+        <v>5.3800000000000002E-3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+      <c r="A10" s="89" t="s">
+        <v>36</v>
+      </c>
+      <c r="B10" s="89" t="str">
+        <f t="shared" si="0"/>
+        <v>R-RTFT-Att_Deep</v>
+      </c>
+      <c r="C10" s="89" t="str">
+        <f t="shared" si="1"/>
+        <v>Residential Att - Deep retrofit</v>
+      </c>
+      <c r="D10" s="89" t="s">
+        <v>16</v>
+      </c>
+      <c r="E10" s="89" t="s">
+        <v>81</v>
+      </c>
+      <c r="F10" s="89"/>
+      <c r="G10" s="89"/>
+      <c r="H10" s="89"/>
+      <c r="I10" s="80"/>
+      <c r="J10" s="89" t="str">
+        <f t="shared" si="2"/>
+        <v>R-RTFT-Att_Deep</v>
+      </c>
+      <c r="K10" s="89" t="str">
+        <f t="shared" si="3"/>
+        <v>RSDSH_Att</v>
+      </c>
+      <c r="L10" s="89">
+        <v>2020</v>
+      </c>
+      <c r="M10" s="89">
+        <v>1</v>
+      </c>
+      <c r="N10" s="89">
+        <v>30</v>
+      </c>
+      <c r="O10" s="89">
+        <f t="shared" si="4"/>
+        <v>1.345E-2</v>
+      </c>
+      <c r="P10" s="89">
+        <v>30</v>
+      </c>
+      <c r="R10" s="86" t="s">
+        <v>134</v>
+      </c>
+      <c r="S10" s="86" t="s">
         <v>137</v>
       </c>
-      <c r="T8" s="99">
-        <v>1.6E-2</v>
-      </c>
-      <c r="U8" s="104">
+      <c r="T10" s="86">
+        <v>2.69E-2</v>
+      </c>
+      <c r="U10" s="91">
         <v>0.5</v>
       </c>
-      <c r="V8" s="99">
-        <f t="shared" ref="V8:V12" si="2">T8*U8</f>
-        <v>8.0000000000000002E-3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:22" ht="15" x14ac:dyDescent="0.2">
-      <c r="A9" s="93" t="s">
+      <c r="V10" s="86">
+        <f t="shared" si="5"/>
+        <v>1.345E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+      <c r="A11" s="80" t="s">
         <v>36</v>
       </c>
-      <c r="B9" s="93" t="str">
-        <f>"R-RTFT-"&amp;R9&amp;"_"&amp;S9</f>
-        <v>R-RTFT-Att_Shallow</v>
-      </c>
-      <c r="C9" s="93" t="str">
-        <f>"Residential "&amp;R9&amp;" - "&amp;S9&amp;" retrofit"</f>
-        <v>Residential Att - Shallow retrofit</v>
-      </c>
-      <c r="D9" s="93" t="s">
+      <c r="B11" s="80" t="str">
+        <f t="shared" si="0"/>
+        <v>R-RTFT-Det_Shallow</v>
+      </c>
+      <c r="C11" s="80" t="str">
+        <f t="shared" si="1"/>
+        <v>Residential Det - Shallow retrofit</v>
+      </c>
+      <c r="D11" s="80" t="s">
         <v>16</v>
       </c>
-      <c r="E9" s="93" t="s">
+      <c r="E11" s="80" t="s">
         <v>81</v>
       </c>
-      <c r="F9" s="93"/>
-      <c r="G9" s="93"/>
-      <c r="H9" s="93"/>
-      <c r="I9" s="93"/>
-      <c r="J9" s="93" t="str">
-        <f>B9</f>
-        <v>R-RTFT-Att_Shallow</v>
-      </c>
-      <c r="K9" s="93" t="str">
+      <c r="F11" s="80"/>
+      <c r="G11" s="80"/>
+      <c r="H11" s="80"/>
+      <c r="I11" s="80"/>
+      <c r="J11" s="80" t="str">
+        <f t="shared" si="2"/>
+        <v>R-RTFT-Det_Shallow</v>
+      </c>
+      <c r="K11" s="80" t="str">
+        <f t="shared" si="3"/>
+        <v>RSDSH_Det</v>
+      </c>
+      <c r="L11" s="80">
+        <v>2020</v>
+      </c>
+      <c r="M11" s="80">
+        <v>1</v>
+      </c>
+      <c r="N11" s="80">
+        <v>30</v>
+      </c>
+      <c r="O11" s="80">
+        <f t="shared" si="4"/>
+        <v>9.58E-3</v>
+      </c>
+      <c r="P11" s="80">
+        <v>12</v>
+      </c>
+      <c r="R11" s="85" t="s">
+        <v>135</v>
+      </c>
+      <c r="S11" s="85" t="s">
+        <v>136</v>
+      </c>
+      <c r="T11" s="85">
+        <v>4.7899999999999998E-2</v>
+      </c>
+      <c r="U11" s="88">
+        <v>0.2</v>
+      </c>
+      <c r="V11" s="85">
+        <f t="shared" si="5"/>
+        <v>9.58E-3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+      <c r="A12" s="89" t="s">
+        <v>36</v>
+      </c>
+      <c r="B12" s="89" t="str">
         <f t="shared" si="0"/>
-        <v>RSDSH_Att</v>
-      </c>
-      <c r="L9" s="93">
+        <v>R-RTFT-Det_Deep</v>
+      </c>
+      <c r="C12" s="89" t="str">
+        <f t="shared" si="1"/>
+        <v>Residential Det - Deep retrofit</v>
+      </c>
+      <c r="D12" s="89" t="s">
+        <v>16</v>
+      </c>
+      <c r="E12" s="89" t="s">
+        <v>81</v>
+      </c>
+      <c r="F12" s="89"/>
+      <c r="G12" s="89"/>
+      <c r="H12" s="89"/>
+      <c r="I12" s="80"/>
+      <c r="J12" s="89" t="str">
+        <f t="shared" si="2"/>
+        <v>R-RTFT-Det_Deep</v>
+      </c>
+      <c r="K12" s="89" t="str">
+        <f t="shared" si="3"/>
+        <v>RSDSH_Det</v>
+      </c>
+      <c r="L12" s="89">
         <v>2020</v>
       </c>
-      <c r="M9" s="93">
+      <c r="M12" s="89">
         <v>1</v>
       </c>
-      <c r="N9" s="93">
+      <c r="N12" s="89">
         <v>30</v>
       </c>
-      <c r="O9" s="93">
-        <f t="shared" si="1"/>
-        <v>5.3800000000000002E-3</v>
-      </c>
-      <c r="P9" s="93">
-        <v>10</v>
-      </c>
-      <c r="R9" s="98" t="s">
-        <v>134</v>
-      </c>
-      <c r="S9" s="98" t="s">
-        <v>136</v>
-      </c>
-      <c r="T9" s="98">
-        <v>2.69E-2</v>
-      </c>
-      <c r="U9" s="101">
-        <v>0.2</v>
-      </c>
-      <c r="V9" s="98">
-        <f t="shared" si="2"/>
-        <v>5.3800000000000002E-3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:22" ht="15" x14ac:dyDescent="0.2">
-      <c r="A10" s="102" t="s">
-        <v>36</v>
-      </c>
-      <c r="B10" s="102" t="str">
-        <f>"R-RTFT-"&amp;R10&amp;"_"&amp;S10</f>
-        <v>R-RTFT-Att_Deep</v>
-      </c>
-      <c r="C10" s="102" t="str">
-        <f>"Residential "&amp;R10&amp;" - "&amp;S10&amp;" retrofit"</f>
-        <v>Residential Att - Deep retrofit</v>
-      </c>
-      <c r="D10" s="102" t="s">
-        <v>16</v>
-      </c>
-      <c r="E10" s="102" t="s">
-        <v>81</v>
-      </c>
-      <c r="F10" s="102"/>
-      <c r="G10" s="102"/>
-      <c r="H10" s="102"/>
-      <c r="I10" s="93"/>
-      <c r="J10" s="102" t="str">
-        <f>B10</f>
-        <v>R-RTFT-Att_Deep</v>
-      </c>
-      <c r="K10" s="102" t="str">
-        <f t="shared" si="0"/>
-        <v>RSDSH_Att</v>
-      </c>
-      <c r="L10" s="102">
-        <v>2020</v>
-      </c>
-      <c r="M10" s="102">
-        <v>1</v>
-      </c>
-      <c r="N10" s="102">
-        <v>30</v>
-      </c>
-      <c r="O10" s="102">
-        <f t="shared" si="1"/>
-        <v>1.345E-2</v>
-      </c>
-      <c r="P10" s="102">
-        <v>30</v>
-      </c>
-      <c r="R10" s="99" t="s">
-        <v>134</v>
-      </c>
-      <c r="S10" s="99" t="s">
+      <c r="O12" s="89">
+        <f t="shared" si="4"/>
+        <v>2.3949999999999999E-2</v>
+      </c>
+      <c r="P12" s="89">
+        <v>35</v>
+      </c>
+      <c r="R12" s="86" t="s">
+        <v>135</v>
+      </c>
+      <c r="S12" s="86" t="s">
         <v>137</v>
       </c>
-      <c r="T10" s="99">
-        <v>2.69E-2</v>
-      </c>
-      <c r="U10" s="104">
+      <c r="T12" s="86">
+        <v>4.7899999999999998E-2</v>
+      </c>
+      <c r="U12" s="91">
         <v>0.5</v>
       </c>
-      <c r="V10" s="99">
-        <f t="shared" si="2"/>
-        <v>1.345E-2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:22" ht="15" x14ac:dyDescent="0.2">
-      <c r="A11" s="93" t="s">
-        <v>36</v>
-      </c>
-      <c r="B11" s="93" t="str">
-        <f>"R-RTFT-"&amp;R11&amp;"_"&amp;S11</f>
-        <v>R-RTFT-Det_Shallow</v>
-      </c>
-      <c r="C11" s="93" t="str">
-        <f>"Residential "&amp;R11&amp;" - "&amp;S11&amp;" retrofit"</f>
-        <v>Residential Det - Shallow retrofit</v>
-      </c>
-      <c r="D11" s="93" t="s">
-        <v>16</v>
-      </c>
-      <c r="E11" s="93" t="s">
-        <v>81</v>
-      </c>
-      <c r="F11" s="93"/>
-      <c r="G11" s="93"/>
-      <c r="H11" s="93"/>
-      <c r="I11" s="93"/>
-      <c r="J11" s="93" t="str">
-        <f>B11</f>
-        <v>R-RTFT-Det_Shallow</v>
-      </c>
-      <c r="K11" s="93" t="str">
-        <f t="shared" si="0"/>
-        <v>RSDSH_Det</v>
-      </c>
-      <c r="L11" s="93">
-        <v>2020</v>
-      </c>
-      <c r="M11" s="93">
-        <v>1</v>
-      </c>
-      <c r="N11" s="93">
-        <v>30</v>
-      </c>
-      <c r="O11" s="93">
-        <f t="shared" si="1"/>
-        <v>9.58E-3</v>
-      </c>
-      <c r="P11" s="93">
-        <v>10</v>
-      </c>
-      <c r="R11" s="98" t="s">
-        <v>135</v>
-      </c>
-      <c r="S11" s="98" t="s">
-        <v>136</v>
-      </c>
-      <c r="T11" s="98">
-        <v>4.7899999999999998E-2</v>
-      </c>
-      <c r="U11" s="101">
-        <v>0.2</v>
-      </c>
-      <c r="V11" s="98">
-        <f t="shared" si="2"/>
-        <v>9.58E-3</v>
-      </c>
-    </row>
-    <row r="12" spans="1:22" ht="15" x14ac:dyDescent="0.2">
-      <c r="A12" s="102" t="s">
-        <v>36</v>
-      </c>
-      <c r="B12" s="102" t="str">
-        <f>"R-RTFT-"&amp;R12&amp;"_"&amp;S12</f>
-        <v>R-RTFT-Det_Deep</v>
-      </c>
-      <c r="C12" s="102" t="str">
-        <f>"Residential "&amp;R12&amp;" - "&amp;S12&amp;" retrofit"</f>
-        <v>Residential Det - Deep retrofit</v>
-      </c>
-      <c r="D12" s="102" t="s">
-        <v>16</v>
-      </c>
-      <c r="E12" s="102" t="s">
-        <v>81</v>
-      </c>
-      <c r="F12" s="102"/>
-      <c r="G12" s="102"/>
-      <c r="H12" s="102"/>
-      <c r="I12" s="93"/>
-      <c r="J12" s="102" t="str">
-        <f>B12</f>
-        <v>R-RTFT-Det_Deep</v>
-      </c>
-      <c r="K12" s="102" t="str">
-        <f t="shared" si="0"/>
-        <v>RSDSH_Det</v>
-      </c>
-      <c r="L12" s="102">
-        <v>2020</v>
-      </c>
-      <c r="M12" s="102">
-        <v>1</v>
-      </c>
-      <c r="N12" s="102">
-        <v>30</v>
-      </c>
-      <c r="O12" s="102">
-        <f t="shared" si="1"/>
-        <v>2.3949999999999999E-2</v>
-      </c>
-      <c r="P12" s="102">
-        <v>30</v>
-      </c>
-      <c r="R12" s="99" t="s">
-        <v>135</v>
-      </c>
-      <c r="S12" s="99" t="s">
-        <v>137</v>
-      </c>
-      <c r="T12" s="99">
-        <v>4.7899999999999998E-2</v>
-      </c>
-      <c r="U12" s="104">
-        <v>0.5</v>
-      </c>
-      <c r="V12" s="99">
-        <f t="shared" si="2"/>
+      <c r="V12" s="86">
+        <f t="shared" si="5"/>
         <v>2.3949999999999999E-2</v>
       </c>
     </row>
